--- a/excel/bookinfo.xlsx
+++ b/excel/bookinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Booking_Number</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>t@t.com</t>
+  </si>
+  <si>
+    <t>5fac34cd1c0b8</t>
+  </si>
+  <si>
+    <t>Yee Iuu</t>
+  </si>
+  <si>
+    <t>erer@wretyerr.com</t>
   </si>
 </sst>
 </file>
@@ -434,7 +443,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D8" sqref="D8"/>
@@ -446,7 +455,7 @@
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="13.996582" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -564,6 +573,29 @@
       </c>
       <c r="G5">
         <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>8564463</v>
+      </c>
+      <c r="G6">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
